--- a/data/xlsx/metrics_evaluation_open_world_20240412.xlsx
+++ b/data/xlsx/metrics_evaluation_open_world_20240412.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>session_file_name</t>
+          <t>csv_file_name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -539,12 +539,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>April 05, 2024</t>
+          <t>March 14, 2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>05e0be07-479a-4ea4-9b90-3fc7b79ef7ff_2024225.csv</t>
+          <t>0bc62b93-ac4d-40ef-bdfe-1d7badb24f70_2024208.csv</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -565,19 +565,19 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Submarine</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>March 14, 2024</t>
+          <t>March 20, 2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0bc62b93-ac4d-40ef-bdfe-1d7badb24f70_2024208.csv</t>
+          <t>1995e7ef-ef02-4fc1-b1ab-f137dbf69d48_2024217.csv</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -598,19 +598,19 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Submarine</t>
+          <t>Urban</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>April 05, 2024</t>
+          <t>March 20, 2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0e8693a1-1926-4d56-b0c4-ee2dc8181fc6_2024226.csv</t>
+          <t>21f8cb5d-f5ac-4a01-9287-43df5f6751a1_2024219.csv</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -631,19 +631,19 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Discard</t>
+          <t>Submarine</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>March 20, 2024</t>
+          <t>March 14, 2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1995e7ef-ef02-4fc1-b1ab-f137dbf69d48_2024217.csv</t>
+          <t>220b609b-0e35-454e-9afd-c84cbfa3e3ad_2024202.csv</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -671,12 +671,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>March 20, 2024</t>
+          <t>March 14, 2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>21f8cb5d-f5ac-4a01-9287-43df5f6751a1_2024219.csv</t>
+          <t>23081f6e-875e-44f5-8bd0-edc3905f5c2c_2024201.csv</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -697,19 +697,19 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Submarine</t>
+          <t>Urban</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>March 14, 2024</t>
+          <t>March 20, 2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>220b609b-0e35-454e-9afd-c84cbfa3e3ad_2024202.csv</t>
+          <t>287389c4-4c48-4483-87c0-6b363b57bde2_2024220.csv</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -730,19 +730,19 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>March 14, 2024</t>
+          <t>March 20, 2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>23081f6e-875e-44f5-8bd0-edc3905f5c2c_2024201.csv</t>
+          <t>2e8f6555-a7fa-4b54-8132-c030d697b4ad_2024212.csv</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -763,7 +763,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>287389c4-4c48-4483-87c0-6b363b57bde2_2024220.csv</t>
+          <t>37a554ee-fc49-4730-819c-2d97727bb0b7_2024218.csv</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -796,19 +796,19 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Discard</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>March 20, 2024</t>
+          <t>March 14, 2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2e8f6555-a7fa-4b54-8132-c030d697b4ad_2024212.csv</t>
+          <t>385032e9-9801-4dcf-a841-b3703a0d9acd_2024209.csv</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -829,7 +829,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Urban</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>37a554ee-fc49-4730-819c-2d97727bb0b7_2024218.csv</t>
+          <t>3cf14e31-f416-4c78-8a69-91bf0c685448_2024215.csv</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -869,12 +869,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>March 14, 2024</t>
+          <t>March 20, 2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>385032e9-9801-4dcf-a841-b3703a0d9acd_2024209.csv</t>
+          <t>45365e18-6e38-48e7-b4a2-6b448b209034_2024218.csv</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -902,12 +902,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>March 20, 2024</t>
+          <t>March 14, 2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3cf14e31-f416-4c78-8a69-91bf0c685448_2024215.csv</t>
+          <t>499179ba-3138-4bae-918e-ffc7fb943760_2024206.csv</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -928,19 +928,19 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Discard</t>
+          <t>Urban</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>March 20, 2024</t>
+          <t>March 14, 2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>45365e18-6e38-48e7-b4a2-6b448b209034_2024218.csv</t>
+          <t>4bc46c8c-66e7-463d-b3a1-2a8303af4fd1_2024203.csv</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -961,19 +961,19 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>March 14, 2024</t>
+          <t>March 22, 2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>499179ba-3138-4bae-918e-ffc7fb943760_2024206.csv</t>
+          <t>4de6e23f-3c00-49d9-bbac-3a9febab4311_2024222.csv</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1001,12 +1001,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>March 14, 2024</t>
+          <t>March 20, 2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4bc46c8c-66e7-463d-b3a1-2a8303af4fd1_2024203.csv</t>
+          <t>50b15e40-9860-4574-8ab8-0bd960fe27de_2024220.csv</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1027,19 +1027,19 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Submarine</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>March 22, 2024</t>
+          <t>March 20, 2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4de6e23f-3c00-49d9-bbac-3a9febab4311_2024222.csv</t>
+          <t>5a909dc4-0f86-430d-a400-e37139cba69f_2024212.csv</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Submarine</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>50b15e40-9860-4574-8ab8-0bd960fe27de_2024220.csv</t>
+          <t>5d8d73a3-1898-4f64-8676-73edd1b7daa0_2024211.csv</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Submarine</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>5a909dc4-0f86-430d-a400-e37139cba69f_2024212.csv</t>
+          <t>5d94f0d4-a1b1-4d18-8a62-591e196006a9_2024219.csv</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Submarine</t>
+          <t>Discard</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5d8d73a3-1898-4f64-8676-73edd1b7daa0_2024211.csv</t>
+          <t>6666ee6b-863b-49d1-8097-97e6aa4fb39d_2024221.csv</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1159,19 +1159,19 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Urban</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>March 20, 2024</t>
+          <t>March 14, 2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5d94f0d4-a1b1-4d18-8a62-591e196006a9_2024219.csv</t>
+          <t>67dc0230-511d-41ac-ae9b-850900ab9e6a_2024208.csv</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6666ee6b-863b-49d1-8097-97e6aa4fb39d_2024221.csv</t>
+          <t>6a76af00-56ef-408f-a445-6f5168e090a8_2024221.csv</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1225,19 +1225,19 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Discard</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>March 14, 2024</t>
+          <t>March 20, 2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>67dc0230-511d-41ac-ae9b-850900ab9e6a_2024208.csv</t>
+          <t>6db9446c-2cd4-41b4-be8d-be5ccbbc6e05_2024217.csv</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1258,19 +1258,19 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Discard</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>March 20, 2024</t>
+          <t>March 22, 2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>6a76af00-56ef-408f-a445-6f5168e090a8_2024221.csv</t>
+          <t>70eef02d-d2d0-458e-a8bb-f6511bf47a0c_2024223.csv</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1298,12 +1298,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>March 20, 2024</t>
+          <t>March 14, 2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6db9446c-2cd4-41b4-be8d-be5ccbbc6e05_2024217.csv</t>
+          <t>80f79d45-22fd-479d-b6e2-c62b5778e073_2024204.csv</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1331,12 +1331,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>April 05, 2024</t>
+          <t>March 14, 2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>703b9d0b-7786-4a4b-8a26-7c57d16b785a_2024226.csv</t>
+          <t>8839e3b8-be5e-4878-8aaf-26c656ae2270_2024207.csv</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1357,19 +1357,19 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>March 22, 2024</t>
+          <t>March 14, 2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>70eef02d-d2d0-458e-a8bb-f6511bf47a0c_2024223.csv</t>
+          <t>922ad146-241a-4ea6-8ff1-413d7e0d16ec_2024202.csv</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1397,12 +1397,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>March 14, 2024</t>
+          <t>March 20, 2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>80f79d45-22fd-479d-b6e2-c62b5778e073_2024204.csv</t>
+          <t>a7ce6f7b-6466-4281-9496-92b640d9d04b_2024215.csv</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1423,19 +1423,19 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Submarine</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>April 05, 2024</t>
+          <t>March 14, 2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>84c92e21-764b-435b-9e55-0f12f60383fc_2024227.csv</t>
+          <t>acf74a81-a534-44c7-9cb1-67ec381b5ee0_2024203.csv</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>8839e3b8-be5e-4878-8aaf-26c656ae2270_2024207.csv</t>
+          <t>aecfcd56-2262-40a8-9bb8-088f57d46f3f_2024206.csv</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1489,19 +1489,19 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Discard</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>April 05, 2024</t>
+          <t>March 14, 2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>8b6c4aed-0983-4a76-99fb-cec08dc26b92_2024224.csv</t>
+          <t>b5989edc-8348-4b84-b649-87fc4f1cca53_2024209.csv</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Submarine</t>
+          <t>Discard</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>922ad146-241a-4ea6-8ff1-413d7e0d16ec_2024202.csv</t>
+          <t>bccb0095-5efd-4c5c-ad58-8b8624f9ab56_2024201.csv</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1555,19 +1555,19 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Discard</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>April 05, 2024</t>
+          <t>March 20, 2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>9f3bb117-3a4b-4bc7-9237-e2d9920d5333_2024227.csv</t>
+          <t>c6d3a90f-68c0-4948-bd96-537e80973605_2024216.csv</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1588,19 +1588,19 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Discard</t>
+          <t>Submarine</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>April 05, 2024</t>
+          <t>March 22, 2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>a3a7727b-dd25-4e78-8d63-e66573f5077e_2024224.csv</t>
+          <t>c99de80f-15cc-45cb-aa64-5af0f2f118ca_2024222.csv</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1628,12 +1628,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>March 20, 2024</t>
+          <t>March 22, 2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>a7ce6f7b-6466-4281-9496-92b640d9d04b_2024215.csv</t>
+          <t>c9a8dc60-f61d-44bb-bcb5-6e2466f3c9a0_2024223.csv</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1661,12 +1661,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>April 05, 2024</t>
+          <t>March 14, 2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>a9c21d35-e8be-47fd-926a-a00dcd3e792b_2024225.csv</t>
+          <t>cbbf410f-4657-428e-9616-8a777cc4704d_2024204.csv</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1687,19 +1687,19 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Submarine</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>March 14, 2024</t>
+          <t>March 20, 2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>acf74a81-a534-44c7-9cb1-67ec381b5ee0_2024203.csv</t>
+          <t>d13091cc-98e4-4aba-8d02-7eca8bd1a30c_2024216.csv</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1720,19 +1720,19 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Submarine</t>
+          <t>Discard</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>March 14, 2024</t>
+          <t>March 20, 2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>aecfcd56-2262-40a8-9bb8-088f57d46f3f_2024206.csv</t>
+          <t>d2aaf0ef-a32f-4255-b3f5-56df927ae0b4_2024214.csv</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Discard</t>
+          <t>Urban</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>b5989edc-8348-4b84-b649-87fc4f1cca53_2024209.csv</t>
+          <t>ddfb4e6e-f7c3-4321-89df-b6208f336318_2024205.csv</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Discard</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>bccb0095-5efd-4c5c-ad58-8b8624f9ab56_2024201.csv</t>
+          <t>df2fcf88-874b-4cf9-9707-3fa0b30c348f_2024205.csv</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Urban</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>c6d3a90f-68c0-4948-bd96-537e80973605_2024216.csv</t>
+          <t>dfec642f-45c9-4813-91d8-3445d5ca763c_2024213.csv</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1852,19 +1852,19 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Submarine</t>
+          <t>Urban</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>March 22, 2024</t>
+          <t>March 20, 2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>c99de80f-15cc-45cb-aa64-5af0f2f118ca_2024222.csv</t>
+          <t>fc676b00-9559-467d-adbb-696dd6e9fb08_2024213.csv</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1884,270 +1884,6 @@
         </is>
       </c>
       <c r="G44" t="inlineStr">
-        <is>
-          <t>Discard</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>March 22, 2024</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>c9a8dc60-f61d-44bb-bcb5-6e2466f3c9a0_2024223.csv</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>EM-RES1</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>OSU</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Submarine</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>March 14, 2024</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>cbbf410f-4657-428e-9616-8a777cc4704d_2024204.csv</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>EM-RES1</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>OSU</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Submarine</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>March 20, 2024</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>d13091cc-98e4-4aba-8d02-7eca8bd1a30c_2024216.csv</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>EM-RES1</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>OSU</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Discard</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>March 20, 2024</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>d2aaf0ef-a32f-4255-b3f5-56df927ae0b4_2024214.csv</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>EM-RES1</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>OSU</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>March 14, 2024</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>ddfb4e6e-f7c3-4321-89df-b6208f336318_2024205.csv</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>EM-RES1</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>OSU</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>March 14, 2024</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>df2fcf88-874b-4cf9-9707-3fa0b30c348f_2024205.csv</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>EM-RES1</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>OSU</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>March 20, 2024</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>dfec642f-45c9-4813-91d8-3445d5ca763c_2024213.csv</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>EM-RES1</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>OSU</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>March 20, 2024</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>fc676b00-9559-467d-adbb-696dd6e9fb08_2024213.csv</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>EM-RES1</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>OSU</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
         <is>
           <t>Discard</t>
         </is>
